--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1591.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1591.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.333448881354651</v>
+        <v>0.3937473893165588</v>
       </c>
       <c r="B1">
-        <v>3.290136029110479</v>
+        <v>0.6551966071128845</v>
       </c>
       <c r="C1">
-        <v>5.451507006159697</v>
+        <v>2.214112043380737</v>
       </c>
       <c r="D1">
-        <v>1.661261538610058</v>
+        <v>4.756337642669678</v>
       </c>
       <c r="E1">
-        <v>0.9120242419513716</v>
+        <v>2.091179132461548</v>
       </c>
     </row>
   </sheetData>
